--- a/笔记.xlsx
+++ b/笔记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>在碰撞体系中，需要在角色上定义三种圆</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>previousDirection只保存了第一次按下的方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adding animated buttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加功能按钮来控制某些动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在HudLayer中创建按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,7 +1144,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="29156025"/>
+          <a:off x="266700" y="29327475"/>
           <a:ext cx="6496050" cy="11049000"/>
           <a:chOff x="228600" y="29175075"/>
           <a:chExt cx="6496050" cy="11049000"/>
@@ -1275,7 +1287,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="41271825"/>
+          <a:off x="0" y="41443275"/>
           <a:ext cx="9782175" cy="8791575"/>
           <a:chOff x="0" y="41109900"/>
           <a:chExt cx="9906000" cy="8791575"/>
@@ -1461,7 +1473,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="59921775"/>
+          <a:off x="0" y="60264675"/>
           <a:ext cx="7334250" cy="2524125"/>
           <a:chOff x="0" y="59921775"/>
           <a:chExt cx="7334250" cy="2524125"/>
@@ -1742,7 +1754,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="78152625"/>
+          <a:off x="0" y="78495525"/>
           <a:ext cx="9382125" cy="3009900"/>
           <a:chOff x="0" y="78152625"/>
           <a:chExt cx="9382125" cy="3009900"/>
@@ -2342,7 +2354,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="85725" y="95088075"/>
+          <a:off x="85725" y="95430975"/>
           <a:ext cx="4867275" cy="6724650"/>
           <a:chOff x="85725" y="94745175"/>
           <a:chExt cx="4867275" cy="6724650"/>
@@ -2435,7 +2447,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="57150" y="102746175"/>
+          <a:off x="57150" y="103089075"/>
           <a:ext cx="5286375" cy="4953000"/>
           <a:chOff x="57150" y="102746175"/>
           <a:chExt cx="5286375" cy="4953000"/>
@@ -3215,6 +3227,287 @@
         <a:xfrm>
           <a:off x="5715000" y="16059150"/>
           <a:ext cx="5486400" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="85725" y="21183600"/>
+          <a:ext cx="8220075" cy="7343775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="组合 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="66675" y="29041725"/>
+          <a:ext cx="8886825" cy="15125700"/>
+          <a:chOff x="76200" y="29660850"/>
+          <a:chExt cx="8886825" cy="15125700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1026" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="76200" y="29660850"/>
+            <a:ext cx="8886825" cy="8029575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1027" name="Picture 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:srcRect t="2474" r="9589"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161925" y="37652325"/>
+            <a:ext cx="8801100" cy="7134225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5962650</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="161925" y="44872275"/>
+          <a:ext cx="5800725" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6162675</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76200" y="47463075"/>
+          <a:ext cx="6086475" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6286500</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="104775" y="48234600"/>
+          <a:ext cx="6181725" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3521,9 +3814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A591"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A593" sqref="A593"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3620,7 +3911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" ht="27">
       <c r="A130" s="1" t="s">
         <v>18</v>
       </c>
@@ -3675,7 +3966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" ht="27">
       <c r="A345" s="1" t="s">
         <v>29</v>
       </c>
@@ -3760,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B112"/>
+  <dimension ref="A2:B260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3772,8 +4063,8 @@
     <col min="2" max="2" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="20.25">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3818,6 +4109,21 @@
     <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="20.25">
+      <c r="A120" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/笔记.xlsx
+++ b/笔记.xlsx
@@ -4053,8 +4053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E285" sqref="E285"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/笔记.xlsx
+++ b/笔记.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="3750" windowHeight="5985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="3750" windowHeight="5985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="碰撞策略" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 3" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Brainy Bots" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>在碰撞体系中，需要在角色上定义三种圆</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,12 +274,42 @@
     <t>在HudLayer中创建按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>I, robot: decision-based AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当敌人看到英雄后入如下四种选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同的情况每种状态的概略都不相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai会从1到四个决定的权重的和随机选择一个数，基于结果在选择一个决定，每个决定都一句它的权重分配了一个range,如果随机的数字在某个决定的range内，那么选择这个决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你使用值表现上面的图标，这个选择逻辑类似如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你现在有一个灵活的决策者在你的手中，如果你想添加更多的决定如果你愿意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action follows thought</t>
+  </si>
+  <si>
+    <t>The robot decider</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +360,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3508,6 +3551,953 @@
         <a:xfrm>
           <a:off x="104775" y="48234600"/>
           <a:ext cx="6181725" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7505700" y="48015525"/>
+          <a:ext cx="9477375" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="38100" y="66675"/>
+          <a:ext cx="12954000" cy="26727150"/>
+          <a:chOff x="38100" y="66675"/>
+          <a:chExt cx="12954000" cy="26727150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1025" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="85725" y="66675"/>
+            <a:ext cx="8686800" cy="8201025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1026" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect t="752" b="2632"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="47625" y="8201025"/>
+            <a:ext cx="12944475" cy="7343775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1027" name="Picture 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect t="1132" b="2138"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="47625" y="15525750"/>
+            <a:ext cx="12896850" cy="7324725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1028" name="Picture 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:srcRect t="3488"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="38100" y="22840950"/>
+            <a:ext cx="10487025" cy="3952875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4752975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190500" y="1009650"/>
+          <a:ext cx="4562475" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="209550" y="4286250"/>
+          <a:ext cx="4248150" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7496175</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3075" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12372975"/>
+          <a:ext cx="7496175" cy="6600825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3076" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7477125"/>
+          <a:ext cx="8229600" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3077" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="1255"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20231100"/>
+          <a:ext cx="9039225" cy="6743700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6172200</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3085" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6172200" y="38100000"/>
+          <a:ext cx="3895725" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="组合 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="68170425"/>
+          <a:ext cx="13030200" cy="16506825"/>
+          <a:chOff x="152400" y="54825900"/>
+          <a:chExt cx="13030200" cy="16506825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="Picture 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:srcRect t="72830" b="629"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161925" y="54825900"/>
+            <a:ext cx="13020675" cy="2009775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Picture 11"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:srcRect t="1748" b="1997"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="190500" y="56816625"/>
+            <a:ext cx="10344150" cy="7343775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Picture 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:srcRect t="2703"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="152400" y="64131825"/>
+            <a:ext cx="9629775" cy="7200900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="组合 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="27841575"/>
+          <a:ext cx="9906000" cy="15859125"/>
+          <a:chOff x="0" y="27593925"/>
+          <a:chExt cx="9906000" cy="15859125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="Picture 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:srcRect b="80000"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9525" y="42033825"/>
+            <a:ext cx="9696450" cy="1419225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="组合 15"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="0" y="27593925"/>
+            <a:ext cx="9906000" cy="14506575"/>
+            <a:chOff x="0" y="28222575"/>
+            <a:chExt cx="9906000" cy="14506575"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3079" name="Picture 7"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:srcRect b="6314"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="35804475"/>
+              <a:ext cx="9591675" cy="6924675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3078" name="Picture 6"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:srcRect b="2033"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="28222575"/>
+              <a:ext cx="9906000" cy="7800975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="1">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="组合 24"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="57226200"/>
+          <a:ext cx="13030200" cy="10544175"/>
+          <a:chOff x="180975" y="44253150"/>
+          <a:chExt cx="13030200" cy="10544175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="Picture 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:srcRect t="19732" b="671"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="180975" y="44253150"/>
+            <a:ext cx="9696450" cy="5648325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:srcRect t="8302" b="26918"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="190500" y="49891950"/>
+            <a:ext cx="13020675" cy="4905375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5153025</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3086" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1352550" y="43691175"/>
+          <a:ext cx="3800475" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4086225</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3087" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257175" y="46482000"/>
+          <a:ext cx="3829050" cy="2638425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4053,8 +5043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="E268" sqref="E268"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4138,12 +5128,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E208" sqref="E208"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:A292"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="98.5" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" ht="20.25">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" ht="18.75">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="27">
+      <c r="A269" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="18.75">
+      <c r="A292" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/笔记.xlsx
+++ b/笔记.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="3750" windowHeight="5985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="3750" windowHeight="5985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="碰撞策略" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 3" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Brainy Bots" sheetId="4" r:id="rId4"/>
+    <sheet name="人物的移动" sheetId="5" r:id="rId5"/>
+    <sheet name="关于向量" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>在碰撞体系中，需要在角色上定义三种圆</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,10 +301,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Action follows thought</t>
-  </si>
-  <si>
     <t>The robot decider</t>
+  </si>
+  <si>
+    <t>Action follows thought（思想控制动作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据传入的决定更改控制对象的行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3776,6 +3783,241 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28460700"/>
+          <a:ext cx="12058650" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33432750"/>
+          <a:ext cx="8334375" cy="5391150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3075" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38738175"/>
+          <a:ext cx="5419725" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="285750" y="41252775"/>
+          <a:ext cx="10420350" cy="7267575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6915150" y="36833175"/>
+          <a:ext cx="8296275" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4067,14 +4309,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>491</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4083,7 +4325,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="68170425"/>
+          <a:off x="0" y="62436375"/>
           <a:ext cx="13030200" cy="16506825"/>
           <a:chOff x="152400" y="54825900"/>
           <a:chExt cx="13030200" cy="16506825"/>
@@ -4331,14 +4573,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>331</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>392</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4347,7 +4589,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="57226200"/>
+          <a:off x="0" y="50825400"/>
           <a:ext cx="13030200" cy="10544175"/>
           <a:chOff x="180975" y="44253150"/>
           <a:chExt cx="13030200" cy="10544175"/>
@@ -4512,6 +4754,617 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9439275" y="56835675"/>
+          <a:ext cx="6019800" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219075" y="190500"/>
+          <a:ext cx="7639050" cy="6962775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="组合 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="7143750"/>
+          <a:ext cx="7715250" cy="24155400"/>
+          <a:chOff x="152400" y="7162800"/>
+          <a:chExt cx="7715250" cy="24155400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1026" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="219075" y="7162800"/>
+            <a:ext cx="7639050" cy="6753225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1027" name="Picture 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161925" y="13792200"/>
+            <a:ext cx="7705725" cy="7572375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1028" name="Picture 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="257175" y="21278850"/>
+            <a:ext cx="7591425" cy="8429625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1029" name="Picture 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:srcRect t="4972"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="152400" y="29679900"/>
+            <a:ext cx="7686675" cy="1638300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="组合 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8782050" y="7820025"/>
+          <a:ext cx="7086600" cy="17173575"/>
+          <a:chOff x="8905875" y="619125"/>
+          <a:chExt cx="7086600" cy="17173575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1030" name="Picture 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8934450" y="619125"/>
+            <a:ext cx="6991350" cy="6667500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1031" name="Picture 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8915400" y="7200900"/>
+            <a:ext cx="7077075" cy="6353175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="1032" name="Picture 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8905875" y="13477875"/>
+            <a:ext cx="5972175" cy="4314825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="5314950"/>
+          <a:ext cx="6819900" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="18535650"/>
+          <a:ext cx="4381500" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="14563725"/>
+          <a:ext cx="2438400" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="16068675"/>
+          <a:ext cx="3838575" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5043,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B260"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5128,8 +5981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="I233" sqref="I233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5143,10 +5996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:A292"/>
+  <dimension ref="A3:A293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5164,7 +6017,7 @@
     </row>
     <row r="5" spans="1:1" ht="18.75">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -5194,7 +6047,12 @@
     </row>
     <row r="292" spans="1:1" ht="18.75">
       <c r="A292" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5202,4 +6060,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>